--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_24_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64673.12557381682</v>
+        <v>12725974.68953122</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64673.12557381682</v>
+        <v>12725974.68953122</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>224802.5972517889</v>
+        <v>26114474.73079681</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>224802.5972517889</v>
+        <v>26114474.73079681</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1414664698.298829</v>
+        <v>27924115.57132159</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17198.45775713597</v>
+        <v>724443.6752322116</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33086.79849815784</v>
+        <v>1245195.683501204</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>49025.46974800506</v>
+        <v>1765947.691770197</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>64770.52214730672</v>
+        <v>2286563.288213907</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>80515.87149440651</v>
+        <v>2807210.361124222</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96261.22084150632</v>
+        <v>3327857.434034539</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>112037.6151989321</v>
+        <v>4049494.690196895</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>127527.6713964385</v>
+        <v>4714178.268680524</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>142991.8736040603</v>
+        <v>5181542.786319386</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>158717.4733879317</v>
+        <v>5705296.138264528</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>174441.9155722039</v>
+        <v>6228926.784652155</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>190186.4571737651</v>
+        <v>6752078.841684951</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>205932.1563749256</v>
+        <v>7275353.604275259</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>222243.4044906263</v>
+        <v>7684673.593094824</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>238349.127191516</v>
+        <v>7929485.221343575</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>88</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>295</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>301</v>
